--- a/Jogos_do_Dia/2024-01-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,10 +691,10 @@
         <v>2.05</v>
       </c>
       <c r="J2" t="n">
-        <v>5.89</v>
+        <v>5.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.48</v>
+        <v>3.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.53</v>
@@ -718,10 +718,10 @@
         <v>4.79</v>
       </c>
       <c r="S2" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>1.72</v>
@@ -830,13 +830,13 @@
         <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K3" t="n">
-        <v>4.03</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4.81</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.37</v>
@@ -857,10 +857,10 @@
         <v>3.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
         <v>1.74</v>

--- a/Jogos_do_Dia/2024-01-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>2.05</v>
       </c>
       <c r="J2" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.29</v>
@@ -718,10 +718,10 @@
         <v>4.79</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
         <v>1.72</v>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AB2" t="n">
         <v>1.59</v>
@@ -830,13 +830,13 @@
         <v>4.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.37</v>
@@ -857,10 +857,10 @@
         <v>3.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>1.74</v>
@@ -878,10 +878,10 @@
         <v>2.05</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AB3" t="n">
         <v>1.43</v>
